--- a/WorkBot/main/backend/orders/Completed Orders/Ithaca Bakery/combined_order.xlsx
+++ b/WorkBot/main/backend/orders/Completed Orders/Ithaca Bakery/combined_order.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E126"/>
+  <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,24 +451,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bev on Move - 160 oz</t>
+          <t>Coconut Milk - Unsweetened</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Espresso Roasted Almonds</t>
+          <t>Smoked Salmon (Retail Pack)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -481,27 +481,31 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Capers</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
+          <t>Smoked Salmon (Sliced)</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9</v>
+      </c>
       <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Flour - Millers Choice</t>
+          <t>Box Cake - 10x10x5</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
@@ -509,7 +513,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Honey - Jug</t>
+          <t>Box Cake - 8x8x2.5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -522,12 +526,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Nuts - Pine</t>
+          <t>Box Cake - 8x8x5</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
@@ -535,25 +539,33 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Nuts - Walnut Halves &amp; Pieces</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
+          <t>Caramel Sauce - Torani</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
       <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Oil - Olive Extra Virgin</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
+          <t>Cont Clamshell 6" - Plastic</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
@@ -561,7 +573,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Quinoa - Tri Color</t>
+          <t>Cont Muffin - (1 Pack)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -569,47 +581,51 @@
         <v>2</v>
       </c>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Raisins - Golden</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
+          <t>Cont Soup - 16 oz (Paper)</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2</v>
+      </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Wixson's - Clover Honey</t>
+          <t>Cont Soup - 32oz</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>4</v>
-      </c>
-      <c r="D12" t="n">
-        <v>4</v>
-      </c>
-      <c r="E12" t="n">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Cooper Hill Maple - 1/2 Pint Syrup</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
+          <t>Cont Soup - 8oz</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
@@ -619,120 +635,110 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Cooper Hill Maple - Pint</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
+          <t>Dark Choc Sauce - Torani</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>4</v>
+      </c>
       <c r="C14" t="n">
+        <v>5</v>
+      </c>
+      <c r="D14" t="n">
         <v>4</v>
       </c>
-      <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Nat's Nuts - Cinnamon Whiskey Pecans</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>4</v>
-      </c>
+          <t>Degreaser - for Panini Press (Dawn)</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
-        <v>8</v>
-      </c>
-      <c r="D15" t="n">
-        <v>5</v>
-      </c>
-      <c r="E15" t="n">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Nat's Nuts - Maple Bourbon Almonds</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
+          <t>Kilogram Chai Concentrate</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Nat's Nuts - Salted Caramel Cashews</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>4</v>
-      </c>
+          <t>Lid Soup - 6/16 oz</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="n">
-        <v>8</v>
-      </c>
-      <c r="D17" t="n">
-        <v>5</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Whitefish Salad</t>
+          <t>Peanut Butter - Chunky</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Smoked Salmon (Retail Pack)</t>
+          <t>Peanut Butter - Creamy</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C19" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" t="n">
         <v>3</v>
       </c>
-      <c r="D19" t="n">
-        <v>2</v>
-      </c>
       <c r="E19" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Iced Tea - Black</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1</v>
-      </c>
+          <t>Tape Reg Therm - 3.125x230</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="n">
         <v>1</v>
       </c>
@@ -742,24 +748,24 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Ithaca Soda - Root Beer</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>1</v>
-      </c>
+          <t>Tea Bags - Earl Grey Lavender (Twinings)</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Ithaca Soda - Ginger Beer</t>
+          <t>White Chocolate Sauce - Torani</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
@@ -769,15 +775,19 @@
       <c r="D22" t="n">
         <v>1</v>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Red Bull - Watermelon Red</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr"/>
+          <t>Wrap Foil - 9x10.75</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
       <c r="C23" t="n">
         <v>1</v>
       </c>
@@ -789,17 +799,19 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Red Bull</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr"/>
+          <t>Wrap Paper - 15x10.75</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
       <c r="C24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -808,14 +820,12 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="n">
         <v>2</v>
       </c>
@@ -826,28 +836,28 @@
           <t>Evian 1L</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
+      <c r="B26" t="n">
+        <v>5</v>
+      </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Fiji Water 1L</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>2</v>
-      </c>
+          <t>Hals - Original</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="n">
-        <v>1</v>
-      </c>
-      <c r="D27" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="n">
         <v>1</v>
       </c>
@@ -855,18 +865,18 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Fiji Water 500ml</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>1</v>
-      </c>
+          <t>Ithaca Soda - Root Beer</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="n">
         <v>1</v>
       </c>
-      <c r="D28" t="inlineStr"/>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
       <c r="E28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -876,57 +886,57 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
-      </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="n">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2</v>
+      </c>
+      <c r="E29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Joe Tea - Half &amp; Half</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>2</v>
-      </c>
+          <t>Red Bull</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Joe Tea - Lemon</t>
+          <t>Red Bull - Amber</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
-      </c>
-      <c r="D31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
       <c r="E31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Joe Tea - Peach</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>2</v>
-      </c>
+          <t>Red Bull - Berry</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
@@ -934,104 +944,94 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Boston Coffee Cake - Apple Cinn</t>
+          <t>Red Bull - Yellow</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="n">
         <v>2</v>
       </c>
-      <c r="D33" t="n">
-        <v>1</v>
-      </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Boston Coffee Cake - Blueberry</t>
+          <t>Vita Coco - Pineapple</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="n">
         <v>2</v>
       </c>
-      <c r="D34" t="n">
-        <v>1</v>
-      </c>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Boston Coffee Cake - Cinn Walnut</t>
+          <t>Black &amp; White Cookie</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="n">
         <v>2</v>
       </c>
-      <c r="D35" t="n">
-        <v>1</v>
-      </c>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Almond Milk</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>3</v>
-      </c>
+          <t>Grandma's Coffee Cake - Chocolate Walnut</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="n">
-        <v>2</v>
-      </c>
+      <c r="E36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Maple Syrup (pure)</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr"/>
+          <t>Peach - (sliced) FRZ</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
       <c r="C37" t="n">
         <v>2</v>
       </c>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" t="n">
-        <v>1</v>
-      </c>
+      <c r="E37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>White Hot Chocolate - Ghirardelli</t>
+          <t>Sweet Street - Pie Choc PB Cup Sliced</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="n">
         <v>1</v>
       </c>
-      <c r="D38" t="inlineStr"/>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
       <c r="E38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Grandma's Coffee Cake - Cinnamon w/ Nuts</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>1</v>
-      </c>
+          <t>Oil - Olive Extra Virgin</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
@@ -1039,14 +1039,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Grandma's Coffee Cake - Chocolate Walnut</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>1</v>
-      </c>
+          <t>Soy Milk</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
@@ -1054,7 +1052,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Grandma's Coffee Cake - Blueberry</t>
+          <t>Honey - Jug</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1064,53 +1062,47 @@
         <v>2</v>
       </c>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Cold Cup - 8oz (Paper)</t>
+          <t>Eggs (In-Shell)</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="n">
-        <v>6</v>
-      </c>
-      <c r="D42" t="n">
-        <v>12</v>
-      </c>
-      <c r="E42" t="n">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Cont Soup - 16 oz (Paper)</t>
+          <t>Goat Cheese</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C43" t="n">
         <v>2</v>
       </c>
-      <c r="D43" t="n">
-        <v>2</v>
-      </c>
+      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Sweet Street - Key Lime Pie</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>1</v>
-      </c>
+          <t>Nuts - Walnut Halves &amp; Pieces</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
@@ -1118,146 +1110,132 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Bag Wax - Sandwich</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>1</v>
-      </c>
+          <t>Bev on Move - 160 oz</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr"/>
       <c r="C45" t="n">
-        <v>2</v>
-      </c>
-      <c r="D45" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Wrap Paper - 15x10.75</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>1</v>
-      </c>
+          <t>Plate - Paper (7")</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
       <c r="C46" t="n">
         <v>1</v>
       </c>
-      <c r="D46" t="n">
-        <v>2</v>
-      </c>
-      <c r="E46" t="n">
-        <v>1</v>
-      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Wrap Foil - 9x10.75</t>
+          <t>Mop Head Cut (White)</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
-      </c>
-      <c r="C47" t="n">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C47" t="inlineStr"/>
       <c r="D47" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Box Cake - 10x10x5</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr"/>
-      <c r="C48" t="n">
-        <v>1</v>
-      </c>
+          <t>Bag Paper - Baguette</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Box Cake - 8x8x5</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr"/>
-      <c r="C49" t="n">
-        <v>1</v>
-      </c>
+          <t>Wrap Paper - 6x10.75</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Box Cake - 8x8x2.5</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr"/>
-      <c r="C50" t="n">
-        <v>1</v>
-      </c>
+          <t>Tea Bags - Throat Coat (Traditional Medicinals)</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Smoked Salmon (Sliced)</t>
+          <t>Monin - Lavender</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C51" t="inlineStr"/>
-      <c r="D51" t="n">
-        <v>3</v>
-      </c>
-      <c r="E51" t="n">
-        <v>2</v>
-      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Kilogram Chai Concentrate</t>
+          <t>Equal Exchange - Hazelnut Cream (12oz Ground)</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Tamper Evident - 12oz Bowl</t>
+          <t>Cup Espresso 4oz</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>1</v>
       </c>
       <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
+      <c r="D53" t="n">
+        <v>6</v>
+      </c>
       <c r="E53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Cont Deli - 16oz</t>
+          <t>Cup Hot 8oz</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -1265,44 +1243,44 @@
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="n">
-        <v>1</v>
-      </c>
-      <c r="E54" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="E54" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Tape Reg Therm - 3.125x230</t>
+          <t>Whey Protein</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>1</v>
       </c>
       <c r="C55" t="inlineStr"/>
-      <c r="D55" t="n">
-        <v>1</v>
-      </c>
-      <c r="E55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Cup Hot 8oz</t>
+          <t>Supplement - Antioxident</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C56" t="inlineStr"/>
-      <c r="D56" t="n">
-        <v>2</v>
-      </c>
+      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Peanut Butter - Creamy</t>
+          <t>Cont Deli - 16oz</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1313,17 +1291,17 @@
         <v>2</v>
       </c>
       <c r="E57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Scrubbies - Steel</t>
+          <t>Lid Deli 6-32oz</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
@@ -1332,24 +1310,26 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Panini Sheets - 16x8 3/8</t>
+          <t>Whitefish Salad</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
+      <c r="D59" t="n">
+        <v>1</v>
+      </c>
       <c r="E59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Wrap Poly 8x10.75</t>
+          <t>Vita Coco - Coconut Water 1L</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
@@ -1358,11 +1338,11 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Cup Portion 2oz</t>
+          <t>Saratoga Sparkling 28oz</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
@@ -1371,11 +1351,11 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Lid Portion - 2oz</t>
+          <t>Saratoga Sparkling 12oz</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="n">
@@ -1386,7 +1366,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Cup Espresso 4oz</t>
+          <t>Joe Tea - Peach</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1401,48 +1381,54 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Lid Espresso - 4oz</t>
+          <t>Joe Tea - Lemon</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Whey Protein</t>
+          <t>Joe Tea - Half &amp; Half</t>
         </is>
       </c>
       <c r="B65" t="n">
         <v>1</v>
       </c>
       <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
+      <c r="D65" t="n">
+        <v>1</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Strawberry - FRZ Whole</t>
+          <t>Joe Tea - Black Cherry</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr"/>
+      <c r="D66" t="n">
+        <v>1</v>
+      </c>
       <c r="E66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Raspberry - FRZ Whole</t>
+          <t>Ithaca Soda - Ginger Beer</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1455,46 +1441,58 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Blueberry - FRZ</t>
+          <t>Hals - Lemon</t>
         </is>
       </c>
       <c r="B68" t="n">
         <v>1</v>
       </c>
       <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
+      <c r="D68" t="n">
+        <v>1</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Pineapple - FRZ Chunk</t>
+          <t>Fiji Water 500ml</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
+      <c r="D69" t="n">
+        <v>1</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Bindi - Cake Tiramisu Round</t>
+          <t>Fiji Water 1L</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
+      <c r="D70" t="n">
+        <v>1</v>
+      </c>
+      <c r="E70" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Grandma's Coffee Cake - Lemon Poppy</t>
+          <t>Grandma's Coffee Cake - Chocolate Chip</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -1507,7 +1505,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Sweet Street - Pie Oreo Cookie Bash Sliced</t>
+          <t>Grandma's Coffee Cake - Banana Walnut</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1520,22 +1518,20 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Saratoga Sparkling 12oz</t>
+          <t>Sweet Sydney's - Vegan Snicker Doodle Cookie</t>
         </is>
       </c>
       <c r="B73" t="n">
         <v>1</v>
       </c>
       <c r="C73" t="inlineStr"/>
-      <c r="D73" t="n">
-        <v>2</v>
-      </c>
+      <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Saratoga Sparkling 28oz</t>
+          <t>Sweet Sydney's - Vegan Sea Salt Choc. Chip Cookie</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1548,7 +1544,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Joe Tea - Black Cherry</t>
+          <t>Sweet Sydney's - Vegan Lemon Bar</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -1561,7 +1557,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Vita Coco - Coconut Water 500ml</t>
+          <t>Sweet Sydney's - GF Salted Caramel Cookie</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -1574,91 +1570,87 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Red Bull - Amber</t>
+          <t>Firehook - Garlic Thyme</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C77" t="inlineStr"/>
-      <c r="D77" t="n">
-        <v>1</v>
-      </c>
+      <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Wixson's - Honey Bear</t>
+          <t>Firehook - Rosemary Sea Salt</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C78" t="inlineStr"/>
-      <c r="D78" t="n">
-        <v>6</v>
-      </c>
+      <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Cooper Hill - Maple Qt Syrup</t>
+          <t>Cup Cold 12oz</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="n">
+        <v>1</v>
+      </c>
+      <c r="E79" t="n">
         <v>3</v>
       </c>
-      <c r="E79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Stonybrook - Roasted Pepitas (3oz)</t>
+          <t>Tea Bags - English Breakfast (Twinings)</t>
         </is>
       </c>
       <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Stonybrook - Roasted Maple Pepitas (3oz)</t>
+          <t>Tea Bags - Darjeeling (Twinings)</t>
         </is>
       </c>
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Tea Bags - Earl Grey Lavender (Twinings)</t>
+          <t>Jam - Strawberry</t>
         </is>
       </c>
       <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="n">
-        <v>5</v>
-      </c>
-      <c r="E82" t="n">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Supplement - Antioxident</t>
+          <t>Chili Sauce - Sriracha</t>
         </is>
       </c>
       <c r="B83" t="inlineStr"/>
@@ -1671,22 +1663,20 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Peanut Butter - Chunky</t>
+          <t>Lid Hot Cup - 8oz</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="n">
-        <v>1</v>
-      </c>
-      <c r="E84" t="n">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Oval IB Plates</t>
+          <t>Sanitize Wipes</t>
         </is>
       </c>
       <c r="B85" t="inlineStr"/>
@@ -1694,12 +1684,14 @@
       <c r="D85" t="n">
         <v>2</v>
       </c>
-      <c r="E85" t="inlineStr"/>
+      <c r="E85" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Bag Paper - Baguette</t>
+          <t>Hals - Lime</t>
         </is>
       </c>
       <c r="B86" t="inlineStr"/>
@@ -1712,33 +1704,35 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Glove Nitrile - Med</t>
+          <t>Hals - Black Cherry</t>
         </is>
       </c>
       <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="n">
-        <v>2</v>
-      </c>
-      <c r="E87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Lid Soup - 6/16 oz</t>
+          <t>Sweet Street - Pie Caramel Apple Granny Sliced</t>
         </is>
       </c>
       <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Plate - Paper (7")</t>
+          <t>Sweet Street - Chocolate Lovin</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
@@ -1746,14 +1740,12 @@
       <c r="D89" t="n">
         <v>1</v>
       </c>
-      <c r="E89" t="n">
-        <v>1</v>
-      </c>
+      <c r="E89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Soy Milk</t>
+          <t>Bindi - Cake Limoncello Raspberry</t>
         </is>
       </c>
       <c r="B90" t="inlineStr"/>
@@ -1766,7 +1758,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Masking Tape</t>
+          <t>Suede - Half Throttle Habanero</t>
         </is>
       </c>
       <c r="B91" t="inlineStr"/>
@@ -1779,7 +1771,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Lid Deli 6-32oz</t>
+          <t>Suede - Full Throttle Red Habanero</t>
         </is>
       </c>
       <c r="B92" t="inlineStr"/>
@@ -1787,86 +1779,82 @@
       <c r="D92" t="n">
         <v>2</v>
       </c>
-      <c r="E92" t="n">
-        <v>1</v>
-      </c>
+      <c r="E92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Cont Deli - 8oz</t>
+          <t>Cooper Hill - Maple Qt Syrup</t>
         </is>
       </c>
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Box Cake - 6x6x3</t>
+          <t>Monin - Spiced Brown Sugar</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Urnex - Grindz</t>
+          <t>Scrubbies - Steel</t>
         </is>
       </c>
       <c r="B95" t="inlineStr"/>
       <c r="C95" t="inlineStr"/>
-      <c r="D95" t="n">
-        <v>1</v>
-      </c>
-      <c r="E95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Hals - Lime</t>
+          <t>Urnex - Cafiza</t>
         </is>
       </c>
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr"/>
-      <c r="D96" t="n">
-        <v>2</v>
-      </c>
-      <c r="E96" t="inlineStr"/>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Hals - Lemon</t>
+          <t>Capers</t>
         </is>
       </c>
       <c r="B97" t="inlineStr"/>
       <c r="C97" t="inlineStr"/>
-      <c r="D97" t="n">
-        <v>1</v>
-      </c>
-      <c r="E97" t="inlineStr"/>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Hals - Black Cherry</t>
+          <t>Cake Board - 4" Rectangular (Gold)</t>
         </is>
       </c>
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="inlineStr"/>
-      <c r="D98" t="n">
-        <v>1</v>
-      </c>
+      <c r="D98" t="inlineStr"/>
       <c r="E98" t="n">
         <v>1</v>
       </c>
@@ -1874,368 +1862,13 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Nat's Nuts - Sweet Cayenne Peanuts</t>
+          <t>Coffee Stirrer (Bamboo)</t>
         </is>
       </c>
       <c r="B99" t="inlineStr"/>
       <c r="C99" t="inlineStr"/>
-      <c r="D99" t="n">
-        <v>5</v>
-      </c>
+      <c r="D99" t="inlineStr"/>
       <c r="E99" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>Sweet Street - Pie Choc PB Cup Sliced</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr"/>
-      <c r="C100" t="inlineStr"/>
-      <c r="D100" t="n">
-        <v>1</v>
-      </c>
-      <c r="E100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>Sweet Street - Chocolate Lovin</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr"/>
-      <c r="C101" t="inlineStr"/>
-      <c r="D101" t="n">
-        <v>1</v>
-      </c>
-      <c r="E101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>Red Bull - Yellow</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr"/>
-      <c r="C102" t="inlineStr"/>
-      <c r="D102" t="n">
-        <v>1</v>
-      </c>
-      <c r="E102" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>Stonewall Kitchen - Maple Brown Butter Waffle Cookie</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr"/>
-      <c r="C103" t="inlineStr"/>
-      <c r="D103" t="inlineStr"/>
-      <c r="E103" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>Sweet Sydney's - GF Coconut MacadamiaCookie</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr"/>
-      <c r="C104" t="inlineStr"/>
-      <c r="D104" t="inlineStr"/>
-      <c r="E104" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>Sweet Sydney's - GF Salted Caramel Cookie</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr"/>
-      <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr"/>
-      <c r="E105" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>Mop Head Cut (White)</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr"/>
-      <c r="C106" t="inlineStr"/>
-      <c r="D106" t="inlineStr"/>
-      <c r="E106" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>Tissues/Kleenex</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr"/>
-      <c r="C107" t="inlineStr"/>
-      <c r="D107" t="inlineStr"/>
-      <c r="E107" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>Cont Plastic Inline Eclair</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr"/>
-      <c r="C108" t="inlineStr"/>
-      <c r="D108" t="inlineStr"/>
-      <c r="E108" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>San Pellegrino - Momenti - Lemon &amp; Raspberry</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr"/>
-      <c r="C109" t="inlineStr"/>
-      <c r="D109" t="inlineStr"/>
-      <c r="E109" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>Hals - Original</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr"/>
-      <c r="C110" t="inlineStr"/>
-      <c r="D110" t="inlineStr"/>
-      <c r="E110" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>Joe Tea - Ginsens Green</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr"/>
-      <c r="C111" t="inlineStr"/>
-      <c r="D111" t="inlineStr"/>
-      <c r="E111" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>Coffee Stirrer (Bamboo)</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr"/>
-      <c r="C112" t="inlineStr"/>
-      <c r="D112" t="inlineStr"/>
-      <c r="E112" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>Cake Board - 4" Rectangular (Gold)</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr"/>
-      <c r="C113" t="inlineStr"/>
-      <c r="D113" t="inlineStr"/>
-      <c r="E113" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>Urnex - Cafiza</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr"/>
-      <c r="C114" t="inlineStr"/>
-      <c r="D114" t="inlineStr"/>
-      <c r="E114" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>Matcha - Jade Leaf</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr"/>
-      <c r="C115" t="inlineStr"/>
-      <c r="D115" t="inlineStr"/>
-      <c r="E115" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>Hot Chocolate (Bulk)</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr"/>
-      <c r="C116" t="inlineStr"/>
-      <c r="D116" t="inlineStr"/>
-      <c r="E116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>Ithaca Bakery - Abruzzi Chili Oil</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr"/>
-      <c r="C117" t="inlineStr"/>
-      <c r="D117" t="inlineStr"/>
-      <c r="E117" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>Ithaca Bakery - Garden Pesto Oil</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr"/>
-      <c r="C118" t="inlineStr"/>
-      <c r="D118" t="inlineStr"/>
-      <c r="E118" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>Ithaca Bakery - Sweet Tomato Oil</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr"/>
-      <c r="C119" t="inlineStr"/>
-      <c r="D119" t="inlineStr"/>
-      <c r="E119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>Ithaca Bakery - Tuscan Herb Oil</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr"/>
-      <c r="C120" t="inlineStr"/>
-      <c r="D120" t="inlineStr"/>
-      <c r="E120" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>Ithaca Bakery - Pomodoro Basilico Oil</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr"/>
-      <c r="C121" t="inlineStr"/>
-      <c r="D121" t="inlineStr"/>
-      <c r="E121" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>Ithaca Bakery - Garlic Gusto</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr"/>
-      <c r="C122" t="inlineStr"/>
-      <c r="D122" t="inlineStr"/>
-      <c r="E122" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>Ithaca Bakery - Lemon Herb Oil</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr"/>
-      <c r="C123" t="inlineStr"/>
-      <c r="D123" t="inlineStr"/>
-      <c r="E123" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>Ithaca Bakery - Lemone Oreganato</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr"/>
-      <c r="C124" t="inlineStr"/>
-      <c r="D124" t="inlineStr"/>
-      <c r="E124" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>Ithaca Bakery - Rosmarino Rustico Oil</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr"/>
-      <c r="C125" t="inlineStr"/>
-      <c r="D125" t="inlineStr"/>
-      <c r="E125" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>Ithaca Bakery - Spicy Tomato Oil</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr"/>
-      <c r="C126" t="inlineStr"/>
-      <c r="D126" t="inlineStr"/>
-      <c r="E126" t="n">
         <v>1</v>
       </c>
     </row>

--- a/WorkBot/main/backend/orders/Completed Orders/Ithaca Bakery/combined_order.xlsx
+++ b/WorkBot/main/backend/orders/Completed Orders/Ithaca Bakery/combined_order.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Will\Desktop\Andrew\Projects\RandomStuff\WorkBot\main\backend\orders\OrderFiles\Ithaca Bakery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3081F61C-BD4C-40AF-87AD-F42D39607027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B063E59D-0685-4D5D-BA66-E13F95FBE9C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="750" yWindow="2385" windowWidth="27900" windowHeight="12270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
   <si>
     <t>Item</t>
   </si>
@@ -51,298 +51,364 @@
     <t>DOWNTOWN</t>
   </si>
   <si>
+    <t>Container - Plastic Clamshell (6")</t>
+  </si>
+  <si>
+    <t>Java Box (160oz)</t>
+  </si>
+  <si>
+    <t>Peanut Butter - Creamy</t>
+  </si>
+  <si>
+    <t>Register Tape - Thermal (3.125" x 230')</t>
+  </si>
+  <si>
+    <t>Lid - Deli (6/32oz)</t>
+  </si>
+  <si>
+    <t>Honey - Jug</t>
+  </si>
+  <si>
+    <t>Torani - Dark Chocolate Sauce</t>
+  </si>
+  <si>
+    <t>Torani - White Chocolate Sauce</t>
+  </si>
+  <si>
+    <t>Hazelnut Coffee (Grounded, Bulk)</t>
+  </si>
+  <si>
+    <t>Maple Syrup (pure)</t>
+  </si>
+  <si>
+    <t>Kilogram Chai Concentrate</t>
+  </si>
+  <si>
+    <t>Goat Cheese</t>
+  </si>
+  <si>
     <t>Smoked Salmon (Sliced)</t>
   </si>
   <si>
-    <t>Kilogram Chai Concentrate</t>
-  </si>
-  <si>
-    <t>Hazelnut Coffee (Grounded, Bulk)</t>
-  </si>
-  <si>
-    <t>Torani - White Chocolate Sauce</t>
+    <t>Coconut Milk - Unsweetened</t>
+  </si>
+  <si>
+    <t>Lid - Portion (3.25oz)</t>
+  </si>
+  <si>
+    <t>Cup - Portion (3.25oz)</t>
+  </si>
+  <si>
+    <t>Mop Head Cut (White)</t>
+  </si>
+  <si>
+    <t>Lid - Soup (32oz)</t>
+  </si>
+  <si>
+    <t>Plate - Paper (7")</t>
+  </si>
+  <si>
+    <t>Jelly - Grape</t>
+  </si>
+  <si>
+    <t>Wrap Foil - 9x10.75</t>
+  </si>
+  <si>
+    <t>Wrap Paper - 15x10.75</t>
+  </si>
+  <si>
+    <t>Tea Bags - English Breakfast (Twinings)</t>
+  </si>
+  <si>
+    <t>Tea Bags - Irish Breakfast (Twinings)</t>
+  </si>
+  <si>
+    <t>Tea Bags - Earl Grey (Twinings)</t>
+  </si>
+  <si>
+    <t>Monin - Toasted Marshmallow</t>
+  </si>
+  <si>
+    <t>Monin - Toffee Nut</t>
+  </si>
+  <si>
+    <t>Monin - Lavender</t>
+  </si>
+  <si>
+    <t>Iced Tea - Black</t>
+  </si>
+  <si>
+    <t>Hot Chocolate (Bulk)</t>
+  </si>
+  <si>
+    <t>Cup - Espresso (4oz)</t>
+  </si>
+  <si>
+    <t>Cup - Hot (8oz)</t>
+  </si>
+  <si>
+    <t>Supplement - Whey Protein</t>
+  </si>
+  <si>
+    <t>Tuna - Ahi (Sesame Seared)</t>
+  </si>
+  <si>
+    <t>Bindi - Cake Limoncello Raspberry</t>
+  </si>
+  <si>
+    <t>Grandma's Coffee Cake - Apple</t>
+  </si>
+  <si>
+    <t>Sweet Street - Pie Oreo Cookie Bash Sliced</t>
+  </si>
+  <si>
+    <t>Vegan Egg</t>
+  </si>
+  <si>
+    <t>Joe Tea - Black Cherry</t>
+  </si>
+  <si>
+    <t>Joe Tea - Black Unsweetened</t>
+  </si>
+  <si>
+    <t>Joe Tea - Ginsens Green</t>
+  </si>
+  <si>
+    <t>Joe Tea - Half &amp; Half</t>
+  </si>
+  <si>
+    <t>Joe Tea - Lemon</t>
+  </si>
+  <si>
+    <t>Joe Tea - Mango Lemonade</t>
+  </si>
+  <si>
+    <t>Smoked Salmon (Retail Pack)</t>
+  </si>
+  <si>
+    <t>Whitefish Salad</t>
+  </si>
+  <si>
+    <t>Chobani - Drinkable Yogurt</t>
+  </si>
+  <si>
+    <t>Celsius - Vibe Peach, Tropical, Arctic</t>
+  </si>
+  <si>
+    <t>Celsius - Orange, Kiwi Guava</t>
+  </si>
+  <si>
+    <t>DV - Banana Chips</t>
+  </si>
+  <si>
+    <t>DV - Chewey Caramel w/Pretzel</t>
+  </si>
+  <si>
+    <t>DV - Chocolate Mini Pretzel</t>
+  </si>
+  <si>
+    <t>Nat's Nuts - Maple Bourbon Almonds</t>
+  </si>
+  <si>
+    <t>Sweet Sydney's - GF Coconut MacadamiaCookie</t>
+  </si>
+  <si>
+    <t>Sweet Sydney's - GF Salted Caramel Cookie</t>
+  </si>
+  <si>
+    <t>Sweet Sydney's - Vegan Lemon Bar</t>
+  </si>
+  <si>
+    <t>Sweet Sydney's - Vegan Sea Salt Choc. Chip Cookie</t>
+  </si>
+  <si>
+    <t>Sweet Sydney's - Vegan Snicker Doodle Cookie</t>
+  </si>
+  <si>
+    <t>Tea Bags - Earl Grey Lavender (Twinings)</t>
+  </si>
+  <si>
+    <t>Monin - Hazelnut</t>
   </si>
   <si>
     <t>Torani - Caramel Sauce</t>
   </si>
   <si>
-    <t>Torani - Dark Chocolate Sauce</t>
-  </si>
-  <si>
-    <t>Honey - Jug</t>
-  </si>
-  <si>
-    <t>Lid - Portion (3.25oz)</t>
-  </si>
-  <si>
-    <t>Lid - Portion (2oz)</t>
-  </si>
-  <si>
-    <t>Cup - Portion (3.25oz)</t>
-  </si>
-  <si>
-    <t>Cup - Portion (2oz)</t>
-  </si>
-  <si>
-    <t>Mop Head Cut (White)</t>
+    <t>Wrap Poly 8x10.75</t>
+  </si>
+  <si>
+    <t>Container - Soup (16oz)</t>
+  </si>
+  <si>
+    <t>Sanitize Wipes</t>
+  </si>
+  <si>
+    <t>Lid - Soup (6/16 oz)</t>
+  </si>
+  <si>
+    <t>Fiji Water 1L</t>
+  </si>
+  <si>
+    <t>Essentia Water</t>
+  </si>
+  <si>
+    <t>Container - Soup (8oz)</t>
+  </si>
+  <si>
+    <t>Container - Deli (16oz)</t>
+  </si>
+  <si>
+    <t>Capers</t>
+  </si>
+  <si>
+    <t>Torani - Pumpkin Pie Sauce</t>
+  </si>
+  <si>
+    <t>Tea Bags - Lemon Ginger (Twinings)</t>
+  </si>
+  <si>
+    <t>Peanut Butter - Chunky</t>
+  </si>
+  <si>
+    <t>Fiji Water 500ml</t>
+  </si>
+  <si>
+    <t>Evian 1L</t>
+  </si>
+  <si>
+    <t>Container - Soup (32oz)</t>
   </si>
   <si>
     <t>Chili Sauce - Sriracha</t>
   </si>
   <si>
-    <t>Wrap Paper - 15x10.75</t>
-  </si>
-  <si>
-    <t>Tea Bags - English Breakfast (Twinings)</t>
-  </si>
-  <si>
-    <t>Tea Bags - Earl Grey Lavender (Twinings)</t>
-  </si>
-  <si>
-    <t>Tea Bags - Lemon Ginger (Twinings)</t>
-  </si>
-  <si>
-    <t>Monin - Orange</t>
-  </si>
-  <si>
-    <t>Monin - Cranberry</t>
+    <t>Vita Coco - Coconut Water 1L</t>
+  </si>
+  <si>
+    <t>Register Tape - Paper (3" x 165')</t>
+  </si>
+  <si>
+    <t>Joe Tea - Peach</t>
+  </si>
+  <si>
+    <t>Tea Bags - Throat Coat (Traditional Medicinals)</t>
+  </si>
+  <si>
+    <t>Tea Bags - Pomegrantate &amp; Rasp (Twinings)</t>
+  </si>
+  <si>
+    <t>Red Bull</t>
+  </si>
+  <si>
+    <t>Joe Tea - Kiwi Strawberry</t>
+  </si>
+  <si>
+    <t>Jam - Strawberry</t>
+  </si>
+  <si>
+    <t>Ithaca Soda - Root Beer</t>
+  </si>
+  <si>
+    <t>Bag Paper - Baguette</t>
+  </si>
+  <si>
+    <t>Red Bull - Watermelon Red</t>
+  </si>
+  <si>
+    <t>Red Bull - Amber</t>
+  </si>
+  <si>
+    <t>Box - Holiday/Cater</t>
+  </si>
+  <si>
+    <t>Ithaca Soda - Ginger Beer</t>
+  </si>
+  <si>
+    <t>Matcha - Jade Leaf</t>
+  </si>
+  <si>
+    <t>Saratoga Sparkling 12oz</t>
+  </si>
+  <si>
+    <t>Urnex - Brewer Cleaner</t>
+  </si>
+  <si>
+    <t>Wrap Paper - 6x10.75</t>
+  </si>
+  <si>
+    <t>Grandma's Coffee Cake - Banana Walnut</t>
+  </si>
+  <si>
+    <t>Grandma's Coffee Cake - Blueberry</t>
+  </si>
+  <si>
+    <t>Grandma's Coffee Cake - Chocolate Chip</t>
+  </si>
+  <si>
+    <t>Grandma's Coffee Cake - Cinnamon</t>
+  </si>
+  <si>
+    <t>Grandma's Coffee Cake - Cinnamon w/ Nuts</t>
+  </si>
+  <si>
+    <t>Grandma's Coffee Cake - Mixed Berry</t>
+  </si>
+  <si>
+    <t>Sweet Street - Cheesecake Rasp White Choc Brulee Sliced</t>
+  </si>
+  <si>
+    <t>Box Cake - 8x8x5</t>
   </si>
   <si>
     <t>Monin - Butter Pecan</t>
   </si>
   <si>
-    <t>Monin - Caramel Sugar Free</t>
-  </si>
-  <si>
-    <t>Tuna - Ahi (Sesame Seared)</t>
+    <t>Monin - Cinnamon</t>
+  </si>
+  <si>
+    <t>Monin - Cookie Butter</t>
+  </si>
+  <si>
+    <t>Monin - Vanilla Sugar Free</t>
+  </si>
+  <si>
+    <t>Tissues/Kleenex</t>
   </si>
   <si>
     <t>FRZ Fruit - Mango</t>
   </si>
   <si>
-    <t>Sweet Street - Chocolate Lovin</t>
-  </si>
-  <si>
-    <t>Sweet Street - Pie Oreo Cookie Bash Sliced</t>
-  </si>
-  <si>
-    <t>Grandma's Coffee Cake - Blueberry</t>
-  </si>
-  <si>
-    <t>Joe Tea - Black Unsweetened</t>
-  </si>
-  <si>
-    <t>Joe Tea - Half &amp; Half</t>
-  </si>
-  <si>
-    <t>Joe Tea - Lemon</t>
-  </si>
-  <si>
-    <t>Joe Tea - Peach</t>
-  </si>
-  <si>
-    <t>Whitefish Salad</t>
-  </si>
-  <si>
-    <t>Celsius - Vibe Peach, Tropical, Arctic</t>
-  </si>
-  <si>
-    <t>Monin - Hazelnut</t>
-  </si>
-  <si>
-    <t>Monin - Toffee Nut</t>
-  </si>
-  <si>
-    <t>Wrap Poly 8x10.75</t>
-  </si>
-  <si>
-    <t>Tea Bags - Earl Grey (Twinings)</t>
-  </si>
-  <si>
-    <t>Cup - Hot (8oz)</t>
-  </si>
-  <si>
-    <t>Container - Soup (16oz)</t>
-  </si>
-  <si>
-    <t>Peanut Butter - Creamy</t>
-  </si>
-  <si>
-    <t>Lid - Soup (6/16 oz)</t>
-  </si>
-  <si>
-    <t>Lid - Deli (6/32oz)</t>
-  </si>
-  <si>
-    <t>Fiji Water 1L</t>
-  </si>
-  <si>
-    <t>Capers</t>
-  </si>
-  <si>
-    <t>Urnex - Rinza</t>
-  </si>
-  <si>
-    <t>Urnex - Cafiza</t>
-  </si>
-  <si>
-    <t>Peanut Butter - Chunky</t>
-  </si>
-  <si>
-    <t>Matcha - Jade Leaf</t>
-  </si>
-  <si>
-    <t>Fiji Water 500ml</t>
-  </si>
-  <si>
-    <t>Evian 1L</t>
-  </si>
-  <si>
-    <t>Cup - Espresso (4oz)</t>
-  </si>
-  <si>
-    <t>Chobani - Drinkable Yogurt</t>
-  </si>
-  <si>
-    <t>Monin - Cinnamon</t>
-  </si>
-  <si>
-    <t>Coconut Milk - Unsweetened</t>
-  </si>
-  <si>
-    <t>Scrubbies - Steel</t>
-  </si>
-  <si>
-    <t>Ithaca Soda - Ginger Beer</t>
-  </si>
-  <si>
-    <t>DV - Gummi Bears (12 oz)</t>
-  </si>
-  <si>
-    <t>DV - Banana Chips</t>
+    <t>Grandma's Coffee Cake - Chocolate Walnut</t>
+  </si>
+  <si>
+    <t>Sweet Street - Key Lime Pie</t>
+  </si>
+  <si>
+    <t>DV - Dark Chocolate Peanuts</t>
+  </si>
+  <si>
+    <t>DV - Dried Pineapple Tidbit</t>
+  </si>
+  <si>
+    <t>DV - Gummi Peach Rings</t>
+  </si>
+  <si>
+    <t>DV - Gummi Sharks</t>
+  </si>
+  <si>
+    <t>DV - Licorice Allsort</t>
+  </si>
+  <si>
+    <t>DV - Orange Slices</t>
+  </si>
+  <si>
+    <t>DV - Pepitas Roasted (unsalted)</t>
   </si>
   <si>
     <t>DV - Pumpkin Seeds (roasted &amp; salted)</t>
   </si>
   <si>
-    <t>DV - Dark Chocolate Peanuts</t>
-  </si>
-  <si>
-    <t>DV - Dried Pineapple Tidbit</t>
-  </si>
-  <si>
-    <t>Container - Deli (16oz)</t>
-  </si>
-  <si>
-    <t>Java Box (160oz)</t>
-  </si>
-  <si>
-    <t>Box - Holiday/Cater</t>
-  </si>
-  <si>
-    <t>Box Cake - 6x6x3</t>
-  </si>
-  <si>
-    <t>Box Cake - 8x8x5</t>
-  </si>
-  <si>
-    <t>Container - Deli (8oz)</t>
-  </si>
-  <si>
-    <t>Container - Soup (8oz)</t>
-  </si>
-  <si>
-    <t>Copy Paper (8.5" x 11")</t>
-  </si>
-  <si>
-    <t>Maple Syrup (pure)</t>
-  </si>
-  <si>
-    <t>Monin - Toasted Marshmallow</t>
-  </si>
-  <si>
-    <t>Monin - Vanilla Sugar Free</t>
-  </si>
-  <si>
-    <t>Red Bull</t>
-  </si>
-  <si>
-    <t>Red Bull - Watermelon Red</t>
-  </si>
-  <si>
-    <t>Saratoga Sparkling 12oz</t>
-  </si>
-  <si>
-    <t>Smoked Salmon (Retail Pack)</t>
-  </si>
-  <si>
-    <t>Torani - Pumpkin Pie Sauce</t>
-  </si>
-  <si>
-    <t>Vita Coco - Pineapple</t>
-  </si>
-  <si>
-    <t>White Hot Chocolate - Ghirardelli</t>
-  </si>
-  <si>
-    <t>Wrap Foil - 9x10.75</t>
-  </si>
-  <si>
-    <t>Grandma's Coffee Cake - Cinnamon</t>
-  </si>
-  <si>
-    <t>Grandma's Coffee Cake - Mixed Berry</t>
-  </si>
-  <si>
-    <t>Grandma's Coffee Cake - Cinnamon w/ Nuts</t>
-  </si>
-  <si>
-    <t>Bag Paper - Baguette</t>
-  </si>
-  <si>
-    <t>Box Cake - 10x10x5</t>
-  </si>
-  <si>
-    <t>Lid - Soup (32oz)</t>
-  </si>
-  <si>
-    <t>Monin - Blackberry</t>
-  </si>
-  <si>
-    <t>Tissues/Kleenex</t>
-  </si>
-  <si>
-    <t>Joe Tea - Ginsens Green</t>
-  </si>
-  <si>
-    <t>Eggs (In-Shell)</t>
-  </si>
-  <si>
-    <t>Flour - Millers Choice</t>
-  </si>
-  <si>
-    <t>Goat Cheese</t>
-  </si>
-  <si>
-    <t>Mustard - Honey</t>
-  </si>
-  <si>
-    <t>Nuts - Almonds (sliced)</t>
-  </si>
-  <si>
-    <t>Nuts - Pine</t>
-  </si>
-  <si>
-    <t>Quinoa - Tri Color</t>
-  </si>
-  <si>
-    <t>Sugar - Extra Fine</t>
-  </si>
-  <si>
-    <t>Nuts-Almonds Blanched (Slivered)</t>
-  </si>
-  <si>
-    <t>Vegan Egg</t>
+    <t>DV - Wasabi Peas</t>
   </si>
 </sst>
 </file>
@@ -786,17 +852,17 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E99"/>
+  <dimension ref="A1:G121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection sqref="A1:E121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="19.140625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="53.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="19" style="5" customWidth="1"/>
+    <col min="5" max="5" width="19" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -818,47 +884,56 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" s="5">
+        <v>91</v>
+      </c>
+      <c r="E2" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="5">
-        <v>4</v>
+        <v>39</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="5">
-        <v>1</v>
+        <v>94</v>
+      </c>
+      <c r="D4" s="5">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="5">
+        <v>107</v>
+      </c>
+      <c r="C5" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1</v>
+        <v>74</v>
+      </c>
+      <c r="E6" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>47</v>
+        <v>53</v>
+      </c>
+      <c r="B7" s="5">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1</v>
       </c>
       <c r="E7" s="6">
         <v>1</v>
@@ -866,29 +941,32 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="B8" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" s="5">
         <v>2</v>
       </c>
       <c r="D8" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="5">
+        <v>81</v>
+      </c>
+      <c r="E9" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
+      </c>
+      <c r="B10" s="5">
+        <v>3</v>
       </c>
       <c r="E10" s="6">
         <v>1</v>
@@ -896,48 +974,45 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="5">
+        <v>18</v>
+      </c>
+      <c r="B11" s="5">
         <v>4</v>
-      </c>
-      <c r="E11" s="6">
-        <v>0.17</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="5">
-        <v>3</v>
+        <v>73</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="5">
+        <v>5</v>
+      </c>
+      <c r="B13" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="D14" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E14" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="5">
-        <v>3</v>
+        <v>80</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -947,16 +1022,19 @@
       <c r="D16" s="5">
         <v>1</v>
       </c>
+      <c r="E16" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>54</v>
+        <v>35</v>
+      </c>
+      <c r="B17" s="5">
+        <v>3</v>
       </c>
       <c r="C17" s="5">
         <v>1</v>
-      </c>
-      <c r="D17" s="5">
-        <v>3</v>
       </c>
       <c r="E17" s="6">
         <v>1</v>
@@ -964,10 +1042,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="5">
-        <v>10</v>
+        <v>36</v>
+      </c>
+      <c r="B18" s="5">
+        <v>2</v>
       </c>
       <c r="E18" s="6">
         <v>1</v>
@@ -975,98 +1053,98 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B19" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="B20" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" s="6">
-        <v>1</v>
+        <v>55</v>
+      </c>
+      <c r="B21" s="5">
+        <v>5</v>
+      </c>
+      <c r="C21" s="5">
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E22" s="6">
-        <v>1</v>
+        <v>56</v>
+      </c>
+      <c r="B22" s="5">
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" s="6">
-        <v>1</v>
+        <v>116</v>
+      </c>
+      <c r="C23" s="5">
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E24" s="6">
-        <v>1</v>
+        <v>117</v>
+      </c>
+      <c r="C24" s="5">
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E25" s="6">
-        <v>1</v>
+        <v>118</v>
+      </c>
+      <c r="C25" s="5">
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="C26" s="5">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E27" s="6">
-        <v>1</v>
+        <v>120</v>
+      </c>
+      <c r="C27" s="5">
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" s="5">
-        <v>2</v>
-      </c>
-      <c r="E28" s="6">
-        <v>2</v>
+        <v>121</v>
+      </c>
+      <c r="C28" s="5">
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E29" s="6">
+        <v>122</v>
+      </c>
+      <c r="C29" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="C30" s="5">
         <v>1</v>
@@ -1074,110 +1152,98 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="5">
-        <v>1</v>
+        <v>124</v>
+      </c>
+      <c r="C31" s="5">
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C32" s="5">
-        <v>7</v>
+        <v>71</v>
+      </c>
+      <c r="D32" s="5">
+        <v>1</v>
+      </c>
+      <c r="E32" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" s="5">
-        <v>1</v>
-      </c>
-      <c r="D33" s="5">
+        <v>79</v>
+      </c>
+      <c r="E33" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D34" s="5">
+        <v>70</v>
+      </c>
+      <c r="E34" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D35" s="5">
-        <v>1</v>
+        <v>78</v>
+      </c>
+      <c r="E35" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D36" s="5">
+        <v>113</v>
+      </c>
+      <c r="C36" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B37" s="5">
-        <v>1</v>
-      </c>
-      <c r="D37" s="5">
-        <v>1</v>
-      </c>
-      <c r="E37" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="B38" s="5">
-        <v>4</v>
-      </c>
-      <c r="E38" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E39" s="6">
+        <v>100</v>
+      </c>
+      <c r="D39" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="D40" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B41" s="5">
-        <v>1</v>
-      </c>
-      <c r="C41" s="5">
+        <v>102</v>
+      </c>
+      <c r="D41" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="C42" s="5">
         <v>1</v>
@@ -1185,13 +1251,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B43" s="5">
-        <v>2</v>
-      </c>
-      <c r="C43" s="5">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="D43" s="5">
         <v>1</v>
@@ -1199,30 +1259,15 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B44" s="5">
-        <v>2</v>
-      </c>
-      <c r="C44" s="5">
-        <v>1</v>
+        <v>104</v>
       </c>
       <c r="D44" s="5">
         <v>1</v>
-      </c>
-      <c r="E44" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B45" s="5">
-        <v>3</v>
-      </c>
-      <c r="C45" s="5">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="D45" s="5">
         <v>1</v>
@@ -1230,16 +1275,16 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B46" s="5">
+        <v>2</v>
+      </c>
+      <c r="C46" s="5">
         <v>3</v>
       </c>
-      <c r="C46" s="5">
-        <v>2</v>
-      </c>
       <c r="D46" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E46" s="6">
         <v>1</v>
@@ -1247,42 +1292,45 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D47" s="5">
-        <v>1</v>
-      </c>
-      <c r="E47" s="6">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="B47" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="B48" s="5">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C48" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B49" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C50" s="5">
-        <v>2</v>
+        <v>95</v>
+      </c>
+      <c r="D50" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>44</v>
+        <v>90</v>
+      </c>
+      <c r="D51" s="5">
+        <v>1</v>
       </c>
       <c r="E51" s="6">
         <v>1</v>
@@ -1290,72 +1338,84 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C52" s="5">
-        <v>1</v>
-      </c>
-      <c r="D52" s="5">
-        <v>2</v>
+        <v>89</v>
+      </c>
+      <c r="E52" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E53" s="6">
+        <v>6</v>
+      </c>
+      <c r="B53" s="5">
+        <v>1</v>
+      </c>
+      <c r="C53" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C54" s="5">
+        <v>24</v>
+      </c>
+      <c r="B54" s="5">
+        <v>1</v>
+      </c>
+      <c r="E54" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B55" s="5">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="D55" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B56" s="5">
+        <v>1</v>
+      </c>
+      <c r="D56" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>56</v>
+        <v>45</v>
+      </c>
+      <c r="B57" s="5">
+        <v>3</v>
       </c>
       <c r="C57" s="5">
-        <v>1</v>
-      </c>
-      <c r="E57" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="B58" s="5">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="C58" s="5">
+        <v>2</v>
+      </c>
+      <c r="D58" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C59" s="5">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="E59" s="6">
         <v>1</v>
@@ -1363,7 +1423,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="B60" s="5">
         <v>3</v>
@@ -1371,21 +1431,27 @@
       <c r="C60" s="5">
         <v>1</v>
       </c>
+      <c r="D60" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>74</v>
+        <v>48</v>
+      </c>
+      <c r="B61" s="5">
+        <v>2</v>
       </c>
       <c r="D61" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C62" s="5">
-        <v>3</v>
+        <v>84</v>
+      </c>
+      <c r="D62" s="5">
+        <v>1</v>
       </c>
       <c r="E62" s="6">
         <v>1</v>
@@ -1393,277 +1459,311 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>75</v>
+        <v>15</v>
+      </c>
+      <c r="B63" s="5">
+        <v>5</v>
       </c>
       <c r="C63" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D63" s="5">
+        <v>2</v>
+      </c>
+      <c r="E63" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B64" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="D64" s="5">
+        <v>1</v>
+      </c>
+      <c r="E64" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B65" s="5">
+        <v>2</v>
+      </c>
+      <c r="D65" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B66" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B68" s="5">
+        <v>2</v>
+      </c>
+      <c r="E68" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C65" s="5">
+      <c r="D69" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C70" s="5">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <f>SUM(B70:F70)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C71" s="5">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <f t="shared" ref="G71:G77" si="0">SUM(B71:F71)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C72" s="5">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C73" s="5">
+        <v>2</v>
+      </c>
+      <c r="E73" s="6">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C66" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C67" s="5">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B74" s="5">
+        <v>2</v>
+      </c>
+      <c r="D74" s="5">
+        <v>1</v>
+      </c>
+      <c r="E74" s="6">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B75" s="5">
+        <v>6</v>
+      </c>
+      <c r="D75" s="5">
+        <v>2</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B76" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C68" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C69" s="5">
-        <v>1</v>
-      </c>
-      <c r="D69" s="5">
-        <v>1</v>
-      </c>
-      <c r="E69" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E70" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C71" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D72" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
+      <c r="C76" s="5">
+        <v>1</v>
+      </c>
+      <c r="D76" s="5">
+        <v>1</v>
+      </c>
+      <c r="E76" s="6">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C77" s="5">
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B78" s="5">
+        <v>4</v>
+      </c>
+      <c r="E78" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B79" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D73" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D74" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E75" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C76" s="5">
-        <v>1</v>
-      </c>
-      <c r="D76" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B77" s="5">
-        <v>4</v>
-      </c>
-      <c r="C77" s="5">
-        <v>3</v>
-      </c>
-      <c r="D77" s="5">
-        <v>1</v>
-      </c>
-      <c r="E77" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C78" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B79" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B80" s="5">
+      <c r="E80" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>40</v>
+        <v>7</v>
+      </c>
+      <c r="B81" s="5">
+        <v>4</v>
+      </c>
+      <c r="D81" s="5">
+        <v>2</v>
       </c>
       <c r="E81" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B82" s="5">
-        <v>6</v>
-      </c>
-      <c r="D82" s="5">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E82" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B83" s="5">
-        <v>2</v>
+        <v>87</v>
+      </c>
+      <c r="C83" s="5">
+        <v>1</v>
+      </c>
+      <c r="E83" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B84" s="5">
-        <v>6</v>
-      </c>
-      <c r="C84" s="5">
-        <v>3</v>
+        <v>93</v>
+      </c>
+      <c r="D84" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C85" s="5">
-        <v>4</v>
+        <v>92</v>
+      </c>
+      <c r="D85" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B86" s="5">
-        <v>6</v>
-      </c>
-      <c r="C86" s="5">
-        <v>2</v>
-      </c>
-      <c r="D86" s="5">
-        <v>2</v>
+        <v>83</v>
       </c>
       <c r="E86" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B87" s="5">
-        <v>4</v>
-      </c>
-      <c r="C87" s="5">
-        <v>4</v>
-      </c>
-      <c r="D87" s="5">
-        <v>2</v>
-      </c>
-      <c r="E87" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C88" s="5">
-        <v>1</v>
-      </c>
-      <c r="D88" s="5">
-        <v>1</v>
+        <v>68</v>
+      </c>
+      <c r="E88" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B89" s="5">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="D89" s="5">
-        <v>1</v>
-      </c>
-      <c r="E89" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="B90" s="5">
         <v>1</v>
@@ -1671,93 +1771,333 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>49</v>
+        <v>17</v>
+      </c>
+      <c r="B91" s="5">
+        <v>9</v>
+      </c>
+      <c r="D91" s="5">
+        <v>3</v>
       </c>
       <c r="E91" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E92" s="6">
+        <v>37</v>
+      </c>
+      <c r="B92" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C93" s="5">
+        <v>1</v>
+      </c>
+      <c r="D93" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D94" s="5">
+        <v>115</v>
+      </c>
+      <c r="C94" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D95" s="5">
+        <v>41</v>
+      </c>
+      <c r="B95" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="B96" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="D96" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C97" s="5">
-        <v>1</v>
-      </c>
-      <c r="D97" s="5">
-        <v>2</v>
+        <v>59</v>
+      </c>
+      <c r="B97" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="B98" s="5">
-        <v>1</v>
-      </c>
-      <c r="D98" s="5">
-        <v>1</v>
-      </c>
-      <c r="E98" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E99" s="6">
+        <v>61</v>
+      </c>
+      <c r="B99" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B100" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B101" s="5">
+        <v>4</v>
+      </c>
+      <c r="E101" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C102" s="5">
+        <v>6</v>
+      </c>
+      <c r="D102" s="5">
+        <v>4</v>
+      </c>
+      <c r="E102" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B103" s="5">
+        <v>4</v>
+      </c>
+      <c r="E103" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B104" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E105" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E106" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E107" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C108" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C109" s="5">
+        <v>3</v>
+      </c>
+      <c r="D109" s="5">
+        <v>1</v>
+      </c>
+      <c r="E109" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B110" s="5">
+        <v>4</v>
+      </c>
+      <c r="C110" s="5">
+        <v>4</v>
+      </c>
+      <c r="D110" s="5">
+        <v>4</v>
+      </c>
+      <c r="E110" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C111" s="5">
+        <v>1</v>
+      </c>
+      <c r="D111" s="5">
+        <v>1</v>
+      </c>
+      <c r="E111" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B112" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B113" s="5">
+        <v>1</v>
+      </c>
+      <c r="E113" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D114" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B115" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C116" s="5">
+        <v>1</v>
+      </c>
+      <c r="E116" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B117" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="D117" s="5">
+        <v>1</v>
+      </c>
+      <c r="E117" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B118" s="5">
+        <v>2</v>
+      </c>
+      <c r="C118" s="5">
+        <v>1</v>
+      </c>
+      <c r="D118" s="5">
+        <v>1</v>
+      </c>
+      <c r="E118" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B119" s="5">
+        <v>2</v>
+      </c>
+      <c r="C119" s="5">
+        <v>2</v>
+      </c>
+      <c r="D119" s="5">
+        <v>1</v>
+      </c>
+      <c r="E119" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D120" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D121" s="5">
+        <v>1</v>
+      </c>
+      <c r="E121" s="6">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E99">
-    <sortCondition ref="A2:A99"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E121">
+    <sortCondition ref="A2:A121"/>
   </sortState>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup fitToHeight="0" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="90" fitToHeight="0" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>